--- a/Completion status.xlsx
+++ b/Completion status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\223053192\Desktop\Final-Year-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\223053192\Desktop\Final-Year-Project\Final-Year-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD36A35E-5CD4-44D8-B5B4-A65EDC5DC151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CEE1B3-2739-427D-94ED-B7E347E29D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2CE98C6A-0BB0-421C-BE3D-AFB4845878F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Status</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Predix comaprison pending</t>
+  </si>
+  <si>
+    <t>Source Key Generator</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB59B4A4-E854-402E-8165-34D4630CD385}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,7 +674,7 @@
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
@@ -689,7 +692,7 @@
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -764,98 +767,104 @@
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3"/>
+      <c r="A27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="16"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B42" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
